--- a/graph_color_grocery_shelf/optimized_shelf_allocation.xlsx
+++ b/graph_color_grocery_shelf/optimized_shelf_allocation.xlsx
@@ -495,11 +495,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P2 (Rice Bag)</t>
+          <t>P2 (Rice Bag); P5 (Pasta); P6 (Pasta Sauce)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -539,13 +539,9 @@
       <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>P5 (Pasta); P6 (Pasta Sauce)</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
